--- a/plantillas/consulta/Validacion_Resultados_Nombre_Detalle.xlsx
+++ b/plantillas/consulta/Validacion_Resultados_Nombre_Detalle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EF583B-0449-4D3C-9393-A80CAE34A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E08947C-179D-48DB-ACED-1AFD904063AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>fecha</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nombre de la Unidad Territorial</t>
   </si>
   <si>
-    <t>FORMATO 7</t>
-  </si>
-  <si>
     <t>VALIDACIÓN DE RESULTADOS DE LA CONSULTA  POR NOMBRE DE PROYECTO (DETALLE POR MESA)</t>
   </si>
   <si>
@@ -67,13 +64,6 @@
   </si>
   <si>
     <t>Total de Boletas de Opinión  Sobrantes Inutilizadas</t>
-  </si>
-  <si>
-    <t>Total de Ciudadanas (os) que opinaron  (Los marcados con la palabra "voto" en la Lista nominal  los que votaron con resolución del Tribunal Electoral y vía SEI)</t>
-  </si>
-  <si>
-    <t>Total de Ciudadanas (os) que emitieron su opinión
- (EN CASO DE ACTAS LEVANTADAS EN DIRECCIÓN DISTRITAL)</t>
   </si>
   <si>
     <t xml:space="preserve"> Opiniones Nulas Mesa</t>
@@ -102,13 +92,21 @@
   </si>
   <si>
     <t>SISTEMA DE CÓMPUTO Y VALIDACIONES PARA LAS CONSULTAS CIUDADANAS (SICOVACC)</t>
+  </si>
+  <si>
+    <t>Total de personas ciudadanas que emitieron su opinión
+ (EN CASO DE ACTAS LEVANTADAS EN DIRECCIÓN DISTRITAL)</t>
+  </si>
+  <si>
+    <t>Total de personas que emitieron su opinión
+(Los marcados con la palabra "voto" en la Lista nominal y los que votaron con resolución del Tribunal Electoral)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,11 +157,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +182,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +231,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,38 +294,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="R11" sqref="R11:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,24 +768,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
@@ -775,26 +817,26 @@
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:56" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -826,26 +868,26 @@
       <c r="AU2" s="9"/>
     </row>
     <row r="3" spans="1:56" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="A3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -876,27 +918,25 @@
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
     </row>
-    <row r="4" spans="1:56" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="21" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -927,26 +967,26 @@
       <c r="AU4" s="10"/>
     </row>
     <row r="5" spans="1:56" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -987,26 +1027,26 @@
       <c r="BD5" s="6"/>
     </row>
     <row r="6" spans="1:56" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1041,83 +1081,162 @@
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
     </row>
-    <row r="7" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="Q7" s="18" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
     </row>
     <row r="8" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="18" t="s">
+      <c r="A8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="Q8" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:56" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="I11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="12" spans="1:56" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
